--- a/slate_6/sips_window_additive_0.5_6_5000_error8.xlsx
+++ b/slate_6/sips_window_additive_0.5_6_5000_error8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,24 +452,68 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.004177369674064536</v>
+        <v>0.01529311672884895</v>
       </c>
       <c r="B2" t="n">
-        <v>0.001894818116254948</v>
+        <v>0.01606363405987321</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00840209662678182</v>
+        <v>0.01493106316367182</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.003381420584701329</v>
+        <v>0.003146790850383265</v>
       </c>
       <c r="B3" t="n">
-        <v>0.004022184549829216</v>
+        <v>0.004370928334361592</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002885869584271209</v>
+        <v>0.001310756867404503</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1.651558411332574e-06</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0004506880851161873</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0001006752945450893</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1.21053635982604e-05</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.890176664597441e-05</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5.208063271199016e-05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.0002410763167615195</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2.758932249346524e-05</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.002079831679323672</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.008622817788933691</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.006928023504122878</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.01193673052827477</v>
       </c>
     </row>
   </sheetData>
